--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vcam1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H2">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I2">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J2">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>9.59187308454803</v>
+        <v>9.655987489354999</v>
       </c>
       <c r="R2">
-        <v>9.59187308454803</v>
+        <v>86.90388740419499</v>
       </c>
       <c r="S2">
-        <v>0.001103174384576675</v>
+        <v>0.001023754402006808</v>
       </c>
       <c r="T2">
-        <v>0.001103174384576675</v>
+        <v>0.001023754402006808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H3">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I3">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J3">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>560.1212679464343</v>
+        <v>3.288172350006666</v>
       </c>
       <c r="R3">
-        <v>560.1212679464343</v>
+        <v>29.59355115006</v>
       </c>
       <c r="S3">
-        <v>0.06442030973601341</v>
+        <v>0.000348621093553349</v>
       </c>
       <c r="T3">
-        <v>0.06442030973601341</v>
+        <v>0.000348621093553349</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H4">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I4">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J4">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>1215.859614228439</v>
+        <v>560.3962503518654</v>
       </c>
       <c r="R4">
-        <v>1215.859614228439</v>
+        <v>5043.566253166789</v>
       </c>
       <c r="S4">
-        <v>0.1398376698518727</v>
+        <v>0.05941475471030817</v>
       </c>
       <c r="T4">
-        <v>0.1398376698518727</v>
+        <v>0.05941475471030816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.901995955858</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H5">
-        <v>23.901995955858</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I5">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J5">
-        <v>0.2065215208200703</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>10.08914972045791</v>
+        <v>1283.290422167644</v>
       </c>
       <c r="R5">
-        <v>10.08914972045791</v>
+        <v>11549.6137995088</v>
       </c>
       <c r="S5">
-        <v>0.001160366847607486</v>
+        <v>0.13605798683932</v>
       </c>
       <c r="T5">
-        <v>0.001160366847607486</v>
+        <v>0.13605798683932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.9698836742456</v>
+        <v>23.91119833333333</v>
       </c>
       <c r="H6">
-        <v>61.9698836742456</v>
+        <v>71.73359499999999</v>
       </c>
       <c r="I6">
-        <v>0.535441251227868</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="J6">
-        <v>0.535441251227868</v>
+        <v>0.1979359780585016</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>24.86851978241964</v>
+        <v>10.28893285003722</v>
       </c>
       <c r="R6">
-        <v>24.86851978241964</v>
+        <v>92.600395650335</v>
       </c>
       <c r="S6">
-        <v>0.002860162323300419</v>
+        <v>0.001090861013313271</v>
       </c>
       <c r="T6">
-        <v>0.002860162323300419</v>
+        <v>0.001090861013313271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H7">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I7">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J7">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>1452.207166389569</v>
+        <v>25.123738879669</v>
       </c>
       <c r="R7">
-        <v>1452.207166389569</v>
+        <v>226.113649917021</v>
       </c>
       <c r="S7">
-        <v>0.1670203236571638</v>
+        <v>0.002663688027898306</v>
       </c>
       <c r="T7">
-        <v>0.1670203236571638</v>
+        <v>0.002663688027898306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H8">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I8">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J8">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>3152.317446505266</v>
+        <v>8.555436054985332</v>
       </c>
       <c r="R8">
-        <v>3152.317446505266</v>
+        <v>76.99892449486801</v>
       </c>
       <c r="S8">
-        <v>0.3625523219902596</v>
+        <v>0.0009070709062159376</v>
       </c>
       <c r="T8">
-        <v>0.3625523219902596</v>
+        <v>0.0009070709062159377</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.9698836742456</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H9">
-        <v>61.9698836742456</v>
+        <v>186.642341</v>
       </c>
       <c r="I9">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J9">
-        <v>0.535441251227868</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.422104904506321</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N9">
-        <v>0.422104904506321</v>
+        <v>70.309682</v>
       </c>
       <c r="O9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q9">
-        <v>26.15779183058526</v>
+        <v>1458.084849271729</v>
       </c>
       <c r="R9">
-        <v>26.15779183058526</v>
+        <v>13122.76364344556</v>
       </c>
       <c r="S9">
-        <v>0.003008443257144118</v>
+        <v>0.1545901736706865</v>
       </c>
       <c r="T9">
-        <v>0.003008443257144118</v>
+        <v>0.1545901736706866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21422612316629</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H10">
-        <v>1.21422612316629</v>
+        <v>186.642341</v>
       </c>
       <c r="I10">
-        <v>0.01049133411447599</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J10">
-        <v>0.01049133411447599</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401300088170972</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N10">
-        <v>0.401300088170972</v>
+        <v>161.00704</v>
       </c>
       <c r="O10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q10">
-        <v>0.4872690502861297</v>
+        <v>3338.970095897849</v>
       </c>
       <c r="R10">
-        <v>0.4872690502861297</v>
+        <v>30050.73086308064</v>
       </c>
       <c r="S10">
-        <v>5.604147698103025E-05</v>
+        <v>0.3540068105528223</v>
       </c>
       <c r="T10">
-        <v>5.604147698103025E-05</v>
+        <v>0.3540068105528223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.21422612316629</v>
+        <v>62.21411366666666</v>
       </c>
       <c r="H11">
-        <v>1.21422612316629</v>
+        <v>186.642341</v>
       </c>
       <c r="I11">
-        <v>0.01049133411447599</v>
+        <v>0.5150060346614912</v>
       </c>
       <c r="J11">
-        <v>0.01049133411447599</v>
+        <v>0.5150060346614913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4340792702359</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N11">
-        <v>23.4340792702359</v>
+        <v>1.290893</v>
       </c>
       <c r="O11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q11">
-        <v>28.45427122227006</v>
+        <v>26.77058794450144</v>
       </c>
       <c r="R11">
-        <v>28.45427122227006</v>
+        <v>240.935291500513</v>
       </c>
       <c r="S11">
-        <v>0.003272564479066465</v>
+        <v>0.002838291503868181</v>
       </c>
       <c r="T11">
-        <v>0.003272564479066465</v>
+        <v>0.002838291503868181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H12">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I12">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J12">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.8685390322163</v>
+        <v>0.403827</v>
       </c>
       <c r="N12">
-        <v>50.8685390322163</v>
+        <v>1.211481</v>
       </c>
       <c r="O12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q12">
-        <v>61.7659089402211</v>
+        <v>0.649664628181</v>
       </c>
       <c r="R12">
-        <v>61.7659089402211</v>
+        <v>5.846981653629</v>
       </c>
       <c r="S12">
-        <v>0.007103781293010931</v>
+        <v>6.887923411889613E-05</v>
       </c>
       <c r="T12">
-        <v>0.007103781293010931</v>
+        <v>6.887923411889613E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.21422612316629</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H13">
-        <v>1.21422612316629</v>
+        <v>4.826309</v>
       </c>
       <c r="I13">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J13">
-        <v>0.01049133411447599</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.422104904506321</v>
+        <v>0.137516</v>
       </c>
       <c r="N13">
-        <v>0.422104904506321</v>
+        <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.005618624359339496</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P13">
-        <v>0.005618624359339496</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q13">
-        <v>0.5125308017681872</v>
+        <v>0.2212315694813333</v>
       </c>
       <c r="R13">
-        <v>0.5125308017681872</v>
+        <v>1.991084125332</v>
       </c>
       <c r="S13">
-        <v>5.894686541756427E-05</v>
+        <v>2.345558063005723E-05</v>
       </c>
       <c r="T13">
-        <v>5.894686541756427E-05</v>
+        <v>2.345558063005723E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.61917893686011</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H14">
-        <v>3.61917893686011</v>
+        <v>4.826309</v>
       </c>
       <c r="I14">
-        <v>0.03127095910905005</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J14">
-        <v>0.03127095910905005</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.401300088170972</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N14">
-        <v>0.401300088170972</v>
+        <v>70.309682</v>
       </c>
       <c r="O14">
-        <v>0.005341692140345045</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P14">
-        <v>0.005341692140345045</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q14">
-        <v>1.452376826468487</v>
+        <v>37.70402789152644</v>
       </c>
       <c r="R14">
-        <v>1.452376826468487</v>
+        <v>339.336251023738</v>
       </c>
       <c r="S14">
-        <v>0.000167039836493864</v>
+        <v>0.003997484935630965</v>
       </c>
       <c r="T14">
-        <v>0.000167039836493864</v>
+        <v>0.003997484935630965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.61917893686011</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H15">
-        <v>3.61917893686011</v>
+        <v>4.826309</v>
       </c>
       <c r="I15">
-        <v>0.03127095910905005</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J15">
-        <v>0.03127095910905005</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.4340792702359</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N15">
-        <v>23.4340792702359</v>
+        <v>161.00704</v>
       </c>
       <c r="O15">
-        <v>0.3119302505627921</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P15">
-        <v>0.3119302505627921</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q15">
-        <v>84.81212609954791</v>
+        <v>86.34108069059556</v>
       </c>
       <c r="R15">
-        <v>84.81212609954791</v>
+        <v>777.0697262153601</v>
       </c>
       <c r="S15">
-        <v>0.00975435811022481</v>
+        <v>0.009154119299395099</v>
       </c>
       <c r="T15">
-        <v>0.00975435811022481</v>
+        <v>0.009154119299395101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.61917893686011</v>
+        <v>1.608769666666667</v>
       </c>
       <c r="H16">
-        <v>3.61917893686011</v>
+        <v>4.826309</v>
       </c>
       <c r="I16">
-        <v>0.03127095910905005</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="J16">
-        <v>0.03127095910905005</v>
+        <v>0.01331733328473986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.8685390322163</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N16">
-        <v>50.8685390322163</v>
+        <v>1.290893</v>
       </c>
       <c r="O16">
-        <v>0.6771094329375232</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P16">
-        <v>0.6771094329375232</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q16">
-        <v>184.1023450142436</v>
+        <v>0.6922498337707778</v>
       </c>
       <c r="R16">
-        <v>184.1023450142436</v>
+        <v>6.230248503937</v>
       </c>
       <c r="S16">
-        <v>0.02117386138974136</v>
+        <v>7.3394234964844E-05</v>
       </c>
       <c r="T16">
-        <v>0.02117386138974136</v>
+        <v>7.339423496484402E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.61917893686011</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H17">
-        <v>3.61917893686011</v>
+        <v>21.067845</v>
       </c>
       <c r="I17">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J17">
-        <v>0.03127095910905005</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.422104904506321</v>
+        <v>0.403827</v>
       </c>
       <c r="N17">
-        <v>0.422104904506321</v>
+        <v>1.211481</v>
       </c>
       <c r="O17">
-        <v>0.005618624359339496</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P17">
-        <v>0.005618624359339496</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q17">
-        <v>1.527673179534625</v>
+        <v>2.835921547604999</v>
       </c>
       <c r="R17">
-        <v>1.527673179534625</v>
+        <v>25.523293928445</v>
       </c>
       <c r="S17">
-        <v>0.0001756997725900179</v>
+        <v>0.0003006722172441953</v>
       </c>
       <c r="T17">
-        <v>0.0001756997725900179</v>
+        <v>0.0003006722172441953</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.0308180702325</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H18">
-        <v>25.0308180702325</v>
+        <v>21.067845</v>
       </c>
       <c r="I18">
-        <v>0.2162749347285357</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J18">
-        <v>0.2162749347285357</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.401300088170972</v>
+        <v>0.137516</v>
       </c>
       <c r="N18">
-        <v>0.401300088170972</v>
+        <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.005341692140345045</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P18">
-        <v>0.005341692140345045</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q18">
-        <v>10.04486949857586</v>
+        <v>0.9657219243399999</v>
       </c>
       <c r="R18">
-        <v>10.04486949857586</v>
+        <v>8.69149731906</v>
       </c>
       <c r="S18">
-        <v>0.001155274118993057</v>
+        <v>0.0001023884995964925</v>
       </c>
       <c r="T18">
-        <v>0.001155274118993057</v>
+        <v>0.0001023884995964925</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.0308180702325</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H19">
-        <v>25.0308180702325</v>
+        <v>21.067845</v>
       </c>
       <c r="I19">
-        <v>0.2162749347285357</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J19">
-        <v>0.2162749347285357</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.4340792702359</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N19">
-        <v>23.4340792702359</v>
+        <v>70.309682</v>
       </c>
       <c r="O19">
-        <v>0.3119302505627921</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P19">
-        <v>0.3119302505627921</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q19">
-        <v>586.5741748566816</v>
+        <v>164.5859424861433</v>
       </c>
       <c r="R19">
-        <v>586.5741748566816</v>
+        <v>1481.27348237529</v>
       </c>
       <c r="S19">
-        <v>0.06746269458032365</v>
+        <v>0.01744985516130611</v>
       </c>
       <c r="T19">
-        <v>0.06746269458032365</v>
+        <v>0.01744985516130611</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.0308180702325</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H20">
-        <v>25.0308180702325</v>
+        <v>21.067845</v>
       </c>
       <c r="I20">
-        <v>0.2162749347285357</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J20">
-        <v>0.2162749347285357</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>50.8685390322163</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N20">
-        <v>50.8685390322163</v>
+        <v>161.00704</v>
       </c>
       <c r="O20">
-        <v>0.6771094329375232</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P20">
-        <v>0.6771094329375232</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q20">
-        <v>1273.281146013927</v>
+        <v>376.8968180698666</v>
       </c>
       <c r="R20">
-        <v>1273.281146013927</v>
+        <v>3392.0713626288</v>
       </c>
       <c r="S20">
-        <v>0.1464417984126387</v>
+        <v>0.03995963924215473</v>
       </c>
       <c r="T20">
-        <v>0.1464417984126387</v>
+        <v>0.03995963924215473</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.0308180702325</v>
+        <v>7.022614999999999</v>
       </c>
       <c r="H21">
-        <v>25.0308180702325</v>
+        <v>21.067845</v>
       </c>
       <c r="I21">
-        <v>0.2162749347285357</v>
+        <v>0.05813293625755007</v>
       </c>
       <c r="J21">
-        <v>0.2162749347285357</v>
+        <v>0.05813293625755008</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.422104904506321</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N21">
-        <v>0.422104904506321</v>
+        <v>1.290893</v>
       </c>
       <c r="O21">
-        <v>0.005618624359339496</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P21">
-        <v>0.005618624359339496</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q21">
-        <v>10.56563107125058</v>
+        <v>3.021814848398333</v>
       </c>
       <c r="R21">
-        <v>10.56563107125058</v>
+        <v>27.196333635585</v>
       </c>
       <c r="S21">
-        <v>0.00121516761658031</v>
+        <v>0.0003203811372485504</v>
       </c>
       <c r="T21">
-        <v>0.00121516761658031</v>
+        <v>0.0003203811372485504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>26.045992</v>
+      </c>
+      <c r="H22">
+        <v>78.13797599999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="J22">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.403827</v>
+      </c>
+      <c r="N22">
+        <v>1.211481</v>
+      </c>
+      <c r="O22">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P22">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q22">
+        <v>10.518074811384</v>
+      </c>
+      <c r="R22">
+        <v>94.662673302456</v>
+      </c>
+      <c r="S22">
+        <v>0.001115155275487062</v>
+      </c>
+      <c r="T22">
+        <v>0.001115155275487062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>26.045992</v>
+      </c>
+      <c r="H23">
+        <v>78.13797599999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="J23">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q23">
+        <v>3.581740635872</v>
+      </c>
+      <c r="R23">
+        <v>32.235665722848</v>
+      </c>
+      <c r="S23">
+        <v>0.0003797460121880875</v>
+      </c>
+      <c r="T23">
+        <v>0.0003797460121880876</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>26.045992</v>
+      </c>
+      <c r="H24">
+        <v>78.13797599999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="J24">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N24">
+        <v>70.309682</v>
+      </c>
+      <c r="O24">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P24">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q24">
+        <v>610.4284716315146</v>
+      </c>
+      <c r="R24">
+        <v>5493.856244683631</v>
+      </c>
+      <c r="S24">
+        <v>0.06471930868095969</v>
+      </c>
+      <c r="T24">
+        <v>0.06471930868095968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>26.045992</v>
+      </c>
+      <c r="H25">
+        <v>78.13797599999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="J25">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N25">
+        <v>161.00704</v>
+      </c>
+      <c r="O25">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P25">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q25">
+        <v>1397.862691927893</v>
+      </c>
+      <c r="R25">
+        <v>12580.76422735104</v>
+      </c>
+      <c r="S25">
+        <v>0.1482052545987567</v>
+      </c>
+      <c r="T25">
+        <v>0.1482052545987567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>26.045992</v>
+      </c>
+      <c r="H26">
+        <v>78.13797599999999</v>
+      </c>
+      <c r="I26">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="J26">
+        <v>0.2156077177377173</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.290893</v>
+      </c>
+      <c r="O26">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P26">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q26">
+        <v>11.20752958361867</v>
+      </c>
+      <c r="R26">
+        <v>100.867766252568</v>
+      </c>
+      <c r="S26">
+        <v>0.001188253170325676</v>
+      </c>
+      <c r="T26">
+        <v>0.001188253170325676</v>
       </c>
     </row>
   </sheetData>
